--- a/demo/Results/Distance/Anova.xlsx
+++ b/demo/Results/Distance/Anova.xlsx
@@ -159,13 +159,13 @@
         <v>496</v>
       </c>
       <c r="D2" s="0">
-        <v>93415.457472093229</v>
+        <v>83852.966428774933</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
       </c>
       <c r="F2" s="0">
-        <v>0.99471842932320165</v>
+        <v>0.99411966712812272</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>11</v>
@@ -185,13 +185,13 @@
         <v>496</v>
       </c>
       <c r="D3" s="0">
-        <v>1.1338718012475595</v>
+        <v>1.1338716734471541</v>
       </c>
       <c r="E3" s="0">
-        <v>0.28746906971706887</v>
+        <v>0.28746909685079769</v>
       </c>
       <c r="F3" s="0">
-        <v>0.0022808178351220406</v>
+        <v>0.0022808175786339529</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>12</v>
@@ -209,13 +209,13 @@
         <v>496</v>
       </c>
       <c r="D4" s="0">
-        <v>908.73903864952035</v>
+        <v>815.71579446610292</v>
       </c>
       <c r="E4" s="0">
         <v>0</v>
       </c>
       <c r="F4" s="0">
-        <v>0.64690950678152892</v>
+        <v>0.62186930881480851</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>13</v>
@@ -235,13 +235,13 @@
         <v>496</v>
       </c>
       <c r="D5" s="0">
-        <v>140.7638704712391</v>
+        <v>140.76385461858663</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>0.22106133372024761</v>
+        <v>0.22106131432806025</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>14</v>

--- a/demo/Results/Distance/Anova.xlsx
+++ b/demo/Results/Distance/Anova.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Term</t>
   </si>
@@ -51,7 +51,7 @@
     <t>very large</t>
   </si>
   <si>
-    <t>very small</t>
+    <t>small</t>
   </si>
   <si>
     <t>very large</t>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>significance</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
   <si>
     <t>***</t>
@@ -116,9 +122,9 @@
     <col min="2" max="2" width="4.42578125" customWidth="true"/>
     <col min="3" max="3" width="4.42578125" customWidth="true"/>
     <col min="4" max="4" width="11.7109375" customWidth="true"/>
-    <col min="5" max="5" width="12.7109375" customWidth="true"/>
-    <col min="6" max="6" width="14.7109375" customWidth="true"/>
-    <col min="7" max="7" width="10.140625" customWidth="true"/>
+    <col min="5" max="5" width="13.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="10" customWidth="true"/>
     <col min="8" max="8" width="11.5703125" customWidth="true"/>
   </cols>
   <sheetData>
@@ -156,16 +162,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="0">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="D2" s="0">
-        <v>83852.966428774933</v>
+        <v>375858.88519869605</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
       </c>
       <c r="F2" s="0">
-        <v>0.99411966712812272</v>
+        <v>0.99869801660302171</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>11</v>
@@ -182,21 +188,23 @@
         <v>1</v>
       </c>
       <c r="C3" s="0">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="D3" s="0">
-        <v>1.1338716734471541</v>
+        <v>4.009086477938423</v>
       </c>
       <c r="E3" s="0">
-        <v>0.28746909685079769</v>
+        <v>0.0458062517406711</v>
       </c>
       <c r="F3" s="0">
-        <v>0.0022808175786339529</v>
+        <v>0.0081154103996778654</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="0"/>
+      <c r="H3" s="0" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
@@ -206,22 +214,22 @@
         <v>1</v>
       </c>
       <c r="C4" s="0">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="D4" s="0">
-        <v>815.71579446610292</v>
+        <v>945.88974503464829</v>
       </c>
       <c r="E4" s="0">
         <v>0</v>
       </c>
       <c r="F4" s="0">
-        <v>0.62186930881480851</v>
+        <v>0.65874817220860071</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -232,22 +240,22 @@
         <v>1</v>
       </c>
       <c r="C5" s="0">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="D5" s="0">
-        <v>140.76385461858663</v>
+        <v>138.89344621813584</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>0.22106131432806025</v>
+        <v>0.22085370272718619</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>14</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/demo/Results/Distance/Anova.xlsx
+++ b/demo/Results/Distance/Anova.xlsx
@@ -123,7 +123,7 @@
     <col min="3" max="3" width="4.42578125" customWidth="true"/>
     <col min="4" max="4" width="11.7109375" customWidth="true"/>
     <col min="5" max="5" width="13.7109375" customWidth="true"/>
-    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="14.7109375" customWidth="true"/>
     <col min="7" max="7" width="10" customWidth="true"/>
     <col min="8" max="8" width="11.5703125" customWidth="true"/>
   </cols>
@@ -165,13 +165,13 @@
         <v>490</v>
       </c>
       <c r="D2" s="0">
-        <v>375858.88519869605</v>
+        <v>364511.53239454993</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
       </c>
       <c r="F2" s="0">
-        <v>0.99869801660302171</v>
+        <v>0.99865753988268102</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>11</v>
@@ -191,13 +191,13 @@
         <v>490</v>
       </c>
       <c r="D3" s="0">
-        <v>4.009086477938423</v>
+        <v>4.0091497522804866</v>
       </c>
       <c r="E3" s="0">
-        <v>0.0458062517406711</v>
+        <v>0.045804547246759086</v>
       </c>
       <c r="F3" s="0">
-        <v>0.0081154103996778654</v>
+        <v>0.0081155374435693418</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>12</v>
@@ -217,13 +217,13 @@
         <v>490</v>
       </c>
       <c r="D4" s="0">
-        <v>945.88974503464829</v>
+        <v>917.33290070225962</v>
       </c>
       <c r="E4" s="0">
         <v>0</v>
       </c>
       <c r="F4" s="0">
-        <v>0.65874817220860071</v>
+        <v>0.65182367316539691</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>13</v>
@@ -243,13 +243,13 @@
         <v>490</v>
       </c>
       <c r="D5" s="0">
-        <v>138.89344621813584</v>
+        <v>138.89339214208266</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>0.22085370272718619</v>
+        <v>0.22085363573148051</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>14</v>

--- a/demo/Results/Distance/Anova.xlsx
+++ b/demo/Results/Distance/Anova.xlsx
@@ -123,7 +123,7 @@
     <col min="3" max="3" width="4.42578125" customWidth="true"/>
     <col min="4" max="4" width="11.7109375" customWidth="true"/>
     <col min="5" max="5" width="13.7109375" customWidth="true"/>
-    <col min="6" max="6" width="14.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
     <col min="7" max="7" width="10" customWidth="true"/>
     <col min="8" max="8" width="11.5703125" customWidth="true"/>
   </cols>
@@ -165,13 +165,13 @@
         <v>490</v>
       </c>
       <c r="D2" s="0">
-        <v>364511.53239454993</v>
+        <v>375858.88519869605</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
       </c>
       <c r="F2" s="0">
-        <v>0.99865753988268102</v>
+        <v>0.99869801660302171</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>11</v>
@@ -191,13 +191,13 @@
         <v>490</v>
       </c>
       <c r="D3" s="0">
-        <v>4.0091497522804866</v>
+        <v>4.009086477938423</v>
       </c>
       <c r="E3" s="0">
-        <v>0.045804547246759086</v>
+        <v>0.0458062517406711</v>
       </c>
       <c r="F3" s="0">
-        <v>0.0081155374435693418</v>
+        <v>0.0081154103996778654</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>12</v>
@@ -217,13 +217,13 @@
         <v>490</v>
       </c>
       <c r="D4" s="0">
-        <v>917.33290070225962</v>
+        <v>945.88974503464829</v>
       </c>
       <c r="E4" s="0">
         <v>0</v>
       </c>
       <c r="F4" s="0">
-        <v>0.65182367316539691</v>
+        <v>0.65874817220860071</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>13</v>
@@ -243,13 +243,13 @@
         <v>490</v>
       </c>
       <c r="D5" s="0">
-        <v>138.89339214208266</v>
+        <v>138.89344621813584</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>0.22085363573148051</v>
+        <v>0.22085370272718619</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>14</v>

--- a/demo/Results/Distance/Anova.xlsx
+++ b/demo/Results/Distance/Anova.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="20" uniqueCount="17">
   <si>
     <t>Term</t>
   </si>
@@ -54,9 +54,6 @@
     <t>small</t>
   </si>
   <si>
-    <t>very large</t>
-  </si>
-  <si>
     <t>large</t>
   </si>
   <si>
@@ -67,15 +64,12 @@
   </si>
   <si>
     <t>*</t>
-  </si>
-  <si>
-    <t>***</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -114,8 +108,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="true"/>
@@ -123,7 +120,7 @@
     <col min="3" max="3" width="4.42578125" customWidth="true"/>
     <col min="4" max="4" width="11.7109375" customWidth="true"/>
     <col min="5" max="5" width="13.7109375" customWidth="true"/>
-    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="14.7109375" customWidth="true"/>
     <col min="7" max="7" width="10" customWidth="true"/>
     <col min="8" max="8" width="11.5703125" customWidth="true"/>
   </cols>
@@ -151,7 +148,7 @@
         <v>10</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2">
@@ -165,19 +162,19 @@
         <v>490</v>
       </c>
       <c r="D2" s="0">
-        <v>375858.88519869605</v>
+        <v>364511.51516378386</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
       </c>
       <c r="F2" s="0">
-        <v>0.99869801660302171</v>
+        <v>0.99865753981930694</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -191,19 +188,19 @@
         <v>490</v>
       </c>
       <c r="D3" s="0">
-        <v>4.009086477938423</v>
+        <v>4.009149991845689</v>
       </c>
       <c r="E3" s="0">
-        <v>0.0458062517406711</v>
+        <v>0.045804540793441983</v>
       </c>
       <c r="F3" s="0">
-        <v>0.0081154103996778654</v>
+        <v>0.0081155379245746069</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
@@ -217,19 +214,19 @@
         <v>490</v>
       </c>
       <c r="D4" s="0">
-        <v>945.88974503464829</v>
+        <v>917.33285745102864</v>
       </c>
       <c r="E4" s="0">
         <v>0</v>
       </c>
       <c r="F4" s="0">
-        <v>0.65874817220860071</v>
+        <v>0.65182366246497536</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -243,19 +240,19 @@
         <v>490</v>
       </c>
       <c r="D5" s="0">
-        <v>138.89344621813584</v>
+        <v>138.89340003953134</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>0.22085370272718619</v>
+        <v>0.22085364551575942</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
